--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1609812D-68FE-4457-B7EC-E619EA80CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-05-09 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
   </si>
   <si>
     <t>1401-07-30 (2)</t>
@@ -123,12 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -162,11 +189,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -229,11 +251,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -280,12 +301,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -318,7 +335,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -330,7 +347,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -377,6 +394,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -412,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,23 +614,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -609,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -618,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -629,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -640,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -649,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -700,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>126685284</v>
+      </c>
+      <c r="E11" s="13">
+        <v>146932639</v>
+      </c>
+      <c r="F11" s="13">
+        <v>220934628</v>
+      </c>
+      <c r="G11" s="13">
+        <v>279484194</v>
+      </c>
+      <c r="H11" s="13">
+        <v>336653925</v>
+      </c>
+      <c r="I11" s="13">
         <v>322411234</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>390626164</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>406575166</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>481494914</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>322064856</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-68737017</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-82274038</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-112123208</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-143168055</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-164051934</v>
+      </c>
+      <c r="I12" s="11">
         <v>-93036334</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-198482108</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-246378875</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-250964524</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-199337326</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>57948267</v>
+      </c>
+      <c r="E13" s="15">
+        <v>64658601</v>
+      </c>
+      <c r="F13" s="15">
+        <v>108811420</v>
+      </c>
+      <c r="G13" s="15">
+        <v>136316139</v>
+      </c>
+      <c r="H13" s="15">
+        <v>172601991</v>
+      </c>
+      <c r="I13" s="15">
         <v>229374900</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>192144056</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>160196291</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>230530390</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>122727530</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-3830892</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-3429424</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-5062177</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-6356640</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-6317127</v>
+      </c>
+      <c r="I14" s="11">
         <v>-8070005</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-7740989</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-10155875</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-11686162</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-9215101</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -805,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-891305</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4761111</v>
+      </c>
+      <c r="F16" s="11">
+        <v>106691</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2379648</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-473711</v>
+      </c>
+      <c r="I16" s="11">
         <v>498541</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>2294338</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>9935123</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-1606555</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>3236076</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>53226070</v>
+      </c>
+      <c r="E17" s="15">
+        <v>65990288</v>
+      </c>
+      <c r="F17" s="15">
+        <v>103855934</v>
+      </c>
+      <c r="G17" s="15">
+        <v>132339147</v>
+      </c>
+      <c r="H17" s="15">
+        <v>165811153</v>
+      </c>
+      <c r="I17" s="15">
         <v>221803436</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>186697405</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>159975539</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>217237673</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>116748505</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-7048609</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-4898949</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-5822180</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-12473570</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-7785869</v>
+      </c>
+      <c r="I18" s="11">
         <v>-5156182</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-5993351</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-6010228</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-8399752</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-6328807</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>381037</v>
+      </c>
+      <c r="E19" s="13">
+        <v>15740001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8301347</v>
+      </c>
+      <c r="G19" s="13">
+        <v>65587512</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10915093</v>
+      </c>
+      <c r="I19" s="13">
         <v>10623974</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>16493269</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>144114549</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>21641874</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>23264642</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>46558498</v>
+      </c>
+      <c r="E20" s="17">
+        <v>76831340</v>
+      </c>
+      <c r="F20" s="17">
+        <v>106335101</v>
+      </c>
+      <c r="G20" s="17">
+        <v>185453089</v>
+      </c>
+      <c r="H20" s="17">
+        <v>168940377</v>
+      </c>
+      <c r="I20" s="17">
         <v>227271228</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>197197323</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>298079860</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>230479795</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>133684340</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-7449360</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-8987315</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-6211230</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-9755112</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-30341156</v>
+      </c>
+      <c r="I21" s="13">
         <v>-21980625</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-10223047</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>11362223</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-23560175</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-18189666</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="E22" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="F22" s="17">
+        <v>100123871</v>
+      </c>
+      <c r="G22" s="17">
+        <v>175697977</v>
+      </c>
+      <c r="H22" s="17">
+        <v>138599221</v>
+      </c>
+      <c r="I22" s="17">
         <v>205290603</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>186974276</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>309442083</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>206919620</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>115494674</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -973,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="E24" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="F24" s="17">
+        <v>100123871</v>
+      </c>
+      <c r="G24" s="17">
+        <v>175697977</v>
+      </c>
+      <c r="H24" s="17">
+        <v>138599221</v>
+      </c>
+      <c r="I24" s="17">
         <v>205290603</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>186974276</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>309442083</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>206919620</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>115494674</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>133</v>
+      </c>
+      <c r="E25" s="13">
+        <v>232</v>
+      </c>
+      <c r="F25" s="13">
+        <v>342</v>
+      </c>
+      <c r="G25" s="13">
+        <v>600</v>
+      </c>
+      <c r="H25" s="13">
+        <v>473</v>
+      </c>
+      <c r="I25" s="13">
         <v>701</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>638</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1056</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>706</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1027,38 +1373,68 @@
       <c r="E26" s="11">
         <v>293000000</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="11">
         <v>293000000</v>
       </c>
-      <c r="G26" s="18">
-        <v>530000000</v>
-      </c>
-      <c r="H26" s="18">
-        <v>530000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>293000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>74</v>
+      </c>
+      <c r="E27" s="13">
+        <v>128</v>
+      </c>
+      <c r="F27" s="13">
+        <v>189</v>
+      </c>
+      <c r="G27" s="13">
+        <v>332</v>
+      </c>
+      <c r="H27" s="13">
+        <v>262</v>
+      </c>
+      <c r="I27" s="13">
         <v>387</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>353</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>584</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>390</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1066,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1609812D-68FE-4457-B7EC-E619EA80CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -154,8 +153,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -189,6 +192,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -251,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -301,8 +310,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,12 +627,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +647,7 @@
     <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +661,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +677,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +693,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +707,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +723,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +739,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +753,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +839,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +875,7 @@
         <v>322064856</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +911,7 @@
         <v>-199337326</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +947,7 @@
         <v>122727530</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +983,7 @@
         <v>-9215101</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1055,7 @@
         <v>3236076</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1091,7 @@
         <v>116748505</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>-6328807</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1163,7 @@
         <v>23264642</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1199,7 @@
         <v>133684340</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1235,7 @@
         <v>-18189666</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1271,7 @@
         <v>115494674</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1343,7 @@
         <v>115494674</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1379,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1388,17 +1405,17 @@
       <c r="J26" s="11">
         <v>293000000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="18">
         <v>293000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="18">
         <v>293000000</v>
       </c>
-      <c r="M26" s="11">
-        <v>293000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="18">
+        <v>530000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1451,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80926239-6906-456E-8D96-0B0EA7D6DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فولاد-فولاد مبارکه اصفهان</t>
@@ -36,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -66,37 +49,22 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-11-24 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-05-09 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (2)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -153,12 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -192,11 +156,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -259,11 +218,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,12 +268,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,27 +581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -655,13 +603,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,13 +614,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,13 +625,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,13 +634,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -717,13 +645,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,13 +656,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,13 +665,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,59 +686,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -833,159 +716,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>126685284</v>
+        <v>388843974</v>
       </c>
       <c r="E11" s="13">
-        <v>146932639</v>
+        <v>406575166</v>
       </c>
       <c r="F11" s="13">
-        <v>220934628</v>
+        <v>481494914</v>
       </c>
       <c r="G11" s="13">
-        <v>279484194</v>
+        <v>326178808</v>
       </c>
       <c r="H11" s="13">
-        <v>336653925</v>
-      </c>
-      <c r="I11" s="13">
-        <v>322411234</v>
-      </c>
-      <c r="J11" s="13">
-        <v>390626164</v>
-      </c>
-      <c r="K11" s="13">
-        <v>406575166</v>
-      </c>
-      <c r="L11" s="13">
-        <v>481494914</v>
-      </c>
-      <c r="M11" s="13">
-        <v>322064856</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>348699758</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-68737017</v>
+        <v>-194834717</v>
       </c>
       <c r="E12" s="11">
-        <v>-82274038</v>
+        <v>-246378875</v>
       </c>
       <c r="F12" s="11">
-        <v>-112123208</v>
+        <v>-250964524</v>
       </c>
       <c r="G12" s="11">
-        <v>-143168055</v>
+        <v>-202614404</v>
       </c>
       <c r="H12" s="11">
-        <v>-164051934</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-93036334</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-198482108</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-246378875</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-250964524</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-199337326</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-245903491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>57948267</v>
+        <v>194009257</v>
       </c>
       <c r="E13" s="15">
-        <v>64658601</v>
+        <v>160196291</v>
       </c>
       <c r="F13" s="15">
-        <v>108811420</v>
+        <v>230530390</v>
       </c>
       <c r="G13" s="15">
-        <v>136316139</v>
+        <v>123564404</v>
       </c>
       <c r="H13" s="15">
-        <v>172601991</v>
-      </c>
-      <c r="I13" s="15">
-        <v>229374900</v>
-      </c>
-      <c r="J13" s="15">
-        <v>192144056</v>
-      </c>
-      <c r="K13" s="15">
-        <v>160196291</v>
-      </c>
-      <c r="L13" s="15">
-        <v>230530390</v>
-      </c>
-      <c r="M13" s="15">
-        <v>122727530</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>102796267</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3830892</v>
+        <v>-7740989</v>
       </c>
       <c r="E14" s="11">
-        <v>-3429424</v>
+        <v>-10155875</v>
       </c>
       <c r="F14" s="11">
-        <v>-5062177</v>
+        <v>-11686162</v>
       </c>
       <c r="G14" s="11">
-        <v>-6356640</v>
+        <v>-9214651</v>
       </c>
       <c r="H14" s="11">
-        <v>-6317127</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-8070005</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-7740989</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-10155875</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-11686162</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-9215101</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-14800310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1003,277 +821,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-891305</v>
+        <v>429136</v>
       </c>
       <c r="E16" s="11">
-        <v>4761111</v>
+        <v>9935123</v>
       </c>
       <c r="F16" s="11">
-        <v>106691</v>
+        <v>-1606555</v>
       </c>
       <c r="G16" s="11">
-        <v>2379648</v>
+        <v>2151367</v>
       </c>
       <c r="H16" s="11">
-        <v>-473711</v>
-      </c>
-      <c r="I16" s="11">
-        <v>498541</v>
-      </c>
-      <c r="J16" s="11">
-        <v>2294338</v>
-      </c>
-      <c r="K16" s="11">
-        <v>9935123</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-1606555</v>
-      </c>
-      <c r="M16" s="11">
-        <v>3236076</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2050274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>53226070</v>
+        <v>186697404</v>
       </c>
       <c r="E17" s="15">
-        <v>65990288</v>
+        <v>159975539</v>
       </c>
       <c r="F17" s="15">
-        <v>103855934</v>
+        <v>217237673</v>
       </c>
       <c r="G17" s="15">
-        <v>132339147</v>
+        <v>116501120</v>
       </c>
       <c r="H17" s="15">
-        <v>165811153</v>
-      </c>
-      <c r="I17" s="15">
-        <v>221803436</v>
-      </c>
-      <c r="J17" s="15">
-        <v>186697405</v>
-      </c>
-      <c r="K17" s="15">
-        <v>159975539</v>
-      </c>
-      <c r="L17" s="15">
-        <v>217237673</v>
-      </c>
-      <c r="M17" s="15">
-        <v>116748505</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>85945683</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-7048609</v>
+        <v>-5993351</v>
       </c>
       <c r="E18" s="11">
-        <v>-4898949</v>
+        <v>-6010228</v>
       </c>
       <c r="F18" s="11">
-        <v>-5822180</v>
+        <v>-8399752</v>
       </c>
       <c r="G18" s="11">
-        <v>-12473570</v>
+        <v>-6430799</v>
       </c>
       <c r="H18" s="11">
-        <v>-7785869</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-5156182</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-5993351</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-6010228</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-8399752</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-6328807</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-8269958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>381037</v>
+        <v>16493295</v>
       </c>
       <c r="E19" s="13">
-        <v>15740001</v>
+        <v>144114549</v>
       </c>
       <c r="F19" s="13">
-        <v>8301347</v>
+        <v>21641874</v>
       </c>
       <c r="G19" s="13">
-        <v>65587512</v>
+        <v>-18647293</v>
       </c>
       <c r="H19" s="13">
-        <v>10915093</v>
-      </c>
-      <c r="I19" s="13">
-        <v>10623974</v>
-      </c>
-      <c r="J19" s="13">
-        <v>16493269</v>
-      </c>
-      <c r="K19" s="13">
-        <v>144114549</v>
-      </c>
-      <c r="L19" s="13">
-        <v>21641874</v>
-      </c>
-      <c r="M19" s="13">
-        <v>23264642</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11483099</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>46558498</v>
+        <v>197197348</v>
       </c>
       <c r="E20" s="17">
-        <v>76831340</v>
+        <v>298079860</v>
       </c>
       <c r="F20" s="17">
-        <v>106335101</v>
+        <v>230479795</v>
       </c>
       <c r="G20" s="17">
-        <v>185453089</v>
+        <v>91423028</v>
       </c>
       <c r="H20" s="17">
-        <v>168940377</v>
-      </c>
-      <c r="I20" s="17">
-        <v>227271228</v>
-      </c>
-      <c r="J20" s="17">
-        <v>197197323</v>
-      </c>
-      <c r="K20" s="17">
-        <v>298079860</v>
-      </c>
-      <c r="L20" s="17">
-        <v>230479795</v>
-      </c>
-      <c r="M20" s="17">
-        <v>133684340</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>89158824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-7449360</v>
+        <v>-10223046</v>
       </c>
       <c r="E21" s="13">
-        <v>-8987315</v>
+        <v>11362223</v>
       </c>
       <c r="F21" s="13">
-        <v>-6211230</v>
+        <v>-23560175</v>
       </c>
       <c r="G21" s="13">
-        <v>-9755112</v>
+        <v>-28383271</v>
       </c>
       <c r="H21" s="13">
-        <v>-30341156</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-21980625</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-10223047</v>
-      </c>
-      <c r="K21" s="13">
-        <v>11362223</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-23560175</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-18189666</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5553089</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>39109138</v>
+        <v>186974302</v>
       </c>
       <c r="E22" s="17">
-        <v>67844025</v>
+        <v>309442083</v>
       </c>
       <c r="F22" s="17">
-        <v>100123871</v>
+        <v>206919620</v>
       </c>
       <c r="G22" s="17">
-        <v>175697977</v>
+        <v>63039757</v>
       </c>
       <c r="H22" s="17">
-        <v>138599221</v>
-      </c>
-      <c r="I22" s="17">
-        <v>205290603</v>
-      </c>
-      <c r="J22" s="17">
-        <v>186974276</v>
-      </c>
-      <c r="K22" s="17">
-        <v>309442083</v>
-      </c>
-      <c r="L22" s="17">
-        <v>206919620</v>
-      </c>
-      <c r="M22" s="17">
-        <v>115494674</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>83605735</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1291,101 +989,56 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>39109138</v>
+        <v>186974302</v>
       </c>
       <c r="E24" s="17">
-        <v>67844025</v>
+        <v>309442083</v>
       </c>
       <c r="F24" s="17">
-        <v>100123871</v>
+        <v>206919620</v>
       </c>
       <c r="G24" s="17">
-        <v>175697977</v>
+        <v>63039757</v>
       </c>
       <c r="H24" s="17">
-        <v>138599221</v>
-      </c>
-      <c r="I24" s="17">
-        <v>205290603</v>
-      </c>
-      <c r="J24" s="17">
-        <v>186974276</v>
-      </c>
-      <c r="K24" s="17">
-        <v>309442083</v>
-      </c>
-      <c r="L24" s="17">
-        <v>206919620</v>
-      </c>
-      <c r="M24" s="17">
-        <v>115494674</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>83605735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="E25" s="13">
-        <v>232</v>
+        <v>1056</v>
       </c>
       <c r="F25" s="13">
-        <v>342</v>
+        <v>706</v>
       </c>
       <c r="G25" s="13">
-        <v>600</v>
+        <v>119</v>
       </c>
       <c r="H25" s="13">
-        <v>473</v>
-      </c>
-      <c r="I25" s="13">
-        <v>701</v>
-      </c>
-      <c r="J25" s="13">
-        <v>638</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1056</v>
-      </c>
-      <c r="L25" s="13">
-        <v>706</v>
-      </c>
-      <c r="M25" s="13">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>293000000</v>
+        <v>530000000</v>
       </c>
       <c r="E26" s="11">
         <v>293000000</v>
@@ -1394,64 +1047,34 @@
         <v>293000000</v>
       </c>
       <c r="G26" s="11">
-        <v>293000000</v>
+        <v>530000000</v>
       </c>
       <c r="H26" s="11">
-        <v>293000000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>293000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>293000000</v>
-      </c>
-      <c r="K26" s="18">
-        <v>293000000</v>
-      </c>
-      <c r="L26" s="18">
-        <v>293000000</v>
-      </c>
-      <c r="M26" s="18">
         <v>530000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="E27" s="13">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="F27" s="13">
-        <v>189</v>
+        <v>390</v>
       </c>
       <c r="G27" s="13">
-        <v>332</v>
+        <v>119</v>
       </c>
       <c r="H27" s="13">
-        <v>262</v>
-      </c>
-      <c r="I27" s="13">
-        <v>387</v>
-      </c>
-      <c r="J27" s="13">
-        <v>353</v>
-      </c>
-      <c r="K27" s="13">
-        <v>584</v>
-      </c>
-      <c r="L27" s="13">
-        <v>390</v>
-      </c>
-      <c r="M27" s="13">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1459,11 +1082,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80926239-6906-456E-8D96-0B0EA7D6DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02DBD7-6036-4246-A21B-91AA7A52313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-11-24 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-05-09 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (3)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -582,20 +612,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -603,8 +635,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +651,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,8 +667,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -634,8 +681,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -645,8 +697,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -656,8 +713,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -665,8 +727,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -686,29 +753,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -716,94 +813,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>146932639</v>
+      </c>
+      <c r="E11" s="13">
+        <v>220934628</v>
+      </c>
+      <c r="F11" s="13">
+        <v>279484194</v>
+      </c>
+      <c r="G11" s="13">
+        <v>336653925</v>
+      </c>
+      <c r="H11" s="13">
+        <v>324193424</v>
+      </c>
+      <c r="I11" s="13">
         <v>388843974</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>406575166</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>481494914</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>326178808</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>348699758</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-82274038</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-112123208</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-143168055</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-164051934</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-96683725</v>
+      </c>
+      <c r="I12" s="11">
         <v>-194834717</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-246378875</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-250964524</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-202614404</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-245903491</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>64658601</v>
+      </c>
+      <c r="E13" s="15">
+        <v>108811420</v>
+      </c>
+      <c r="F13" s="15">
+        <v>136316139</v>
+      </c>
+      <c r="G13" s="15">
+        <v>172601991</v>
+      </c>
+      <c r="H13" s="15">
+        <v>227509699</v>
+      </c>
+      <c r="I13" s="15">
         <v>194009257</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>160196291</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>230530390</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>123564404</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>102796267</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-3429424</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-5062177</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-6356640</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-6317127</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-8070005</v>
+      </c>
+      <c r="I14" s="11">
         <v>-7740989</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-10155875</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-11686162</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-9214651</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-14800310</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -821,157 +983,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>4761111</v>
+      </c>
+      <c r="E16" s="11">
+        <v>106691</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2379648</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-473711</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2363743</v>
+      </c>
+      <c r="I16" s="11">
         <v>429136</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>9935123</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-1606555</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>2151367</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>-2050274</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>65990288</v>
+      </c>
+      <c r="E17" s="15">
+        <v>103855934</v>
+      </c>
+      <c r="F17" s="15">
+        <v>132339147</v>
+      </c>
+      <c r="G17" s="15">
+        <v>165811153</v>
+      </c>
+      <c r="H17" s="15">
+        <v>221803437</v>
+      </c>
+      <c r="I17" s="15">
         <v>186697404</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>159975539</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>217237673</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>116501120</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>85945683</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-4898949</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-5822180</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-12473570</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-7785869</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-5156182</v>
+      </c>
+      <c r="I18" s="11">
         <v>-5993351</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-6010228</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-8399752</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-6430799</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-8269958</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>15740001</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8301347</v>
+      </c>
+      <c r="F19" s="13">
+        <v>65587512</v>
+      </c>
+      <c r="G19" s="13">
+        <v>10915093</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10623948</v>
+      </c>
+      <c r="I19" s="13">
         <v>16493295</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>144114549</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>21641874</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>-18647293</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>11483099</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>76831340</v>
+      </c>
+      <c r="E20" s="17">
+        <v>106335101</v>
+      </c>
+      <c r="F20" s="17">
+        <v>185453089</v>
+      </c>
+      <c r="G20" s="17">
+        <v>168940377</v>
+      </c>
+      <c r="H20" s="17">
+        <v>227271203</v>
+      </c>
+      <c r="I20" s="17">
         <v>197197348</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>298079860</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>230479795</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>91423028</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>89158824</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-8987315</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-6211230</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-9755112</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-30341156</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-21980626</v>
+      </c>
+      <c r="I21" s="13">
         <v>-10223046</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>11362223</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-23560175</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-28383271</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-5553089</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="E22" s="17">
+        <v>100123871</v>
+      </c>
+      <c r="F22" s="17">
+        <v>175697977</v>
+      </c>
+      <c r="G22" s="17">
+        <v>138599221</v>
+      </c>
+      <c r="H22" s="17">
+        <v>205290577</v>
+      </c>
+      <c r="I22" s="17">
         <v>186974302</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>309442083</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>206919620</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>63039757</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>83605735</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -989,56 +1271,101 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="E24" s="17">
+        <v>100123871</v>
+      </c>
+      <c r="F24" s="17">
+        <v>175697977</v>
+      </c>
+      <c r="G24" s="17">
+        <v>138599221</v>
+      </c>
+      <c r="H24" s="17">
+        <v>205290577</v>
+      </c>
+      <c r="I24" s="17">
         <v>186974302</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>309442083</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>206919620</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>63039757</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>83605735</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>232</v>
+      </c>
+      <c r="E25" s="13">
+        <v>342</v>
+      </c>
+      <c r="F25" s="13">
+        <v>600</v>
+      </c>
+      <c r="G25" s="13">
+        <v>473</v>
+      </c>
+      <c r="H25" s="13">
+        <v>387</v>
+      </c>
+      <c r="I25" s="13">
         <v>353</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>1056</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>706</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>119</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>530000000</v>
+        <v>293000000</v>
       </c>
       <c r="E26" s="11">
         <v>293000000</v>
@@ -1047,34 +1374,64 @@
         <v>293000000</v>
       </c>
       <c r="G26" s="11">
-        <v>530000000</v>
+        <v>293000000</v>
       </c>
       <c r="H26" s="11">
         <v>530000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>530000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>530000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>530000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>128</v>
+      </c>
+      <c r="E27" s="13">
+        <v>189</v>
+      </c>
+      <c r="F27" s="13">
+        <v>332</v>
+      </c>
+      <c r="G27" s="13">
+        <v>262</v>
+      </c>
+      <c r="H27" s="13">
+        <v>387</v>
+      </c>
+      <c r="I27" s="13">
         <v>353</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>584</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>390</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>119</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1082,6 +1439,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02DBD7-6036-4246-A21B-91AA7A52313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -151,8 +150,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -186,6 +189,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -248,10 +256,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -298,8 +307,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1385,14 +1400,14 @@
       <c r="J26" s="11">
         <v>293000000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="18">
         <v>293000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="18">
         <v>530000000</v>
       </c>
-      <c r="M26" s="11">
-        <v>530000000</v>
+      <c r="M26" s="18">
+        <v>800000000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9420FC-B1BD-4AEB-A813-B7C0A5B65FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-11-24 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -87,13 +85,16 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-30 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -150,12 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -189,11 +186,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -256,11 +248,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -307,12 +298,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,25 +611,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +642,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +658,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +674,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -702,7 +688,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +704,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +720,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -748,7 +734,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,16 +797,16 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -834,151 +820,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>146932639</v>
+        <v>220934628</v>
       </c>
       <c r="E11" s="13">
-        <v>220934628</v>
+        <v>279484194</v>
       </c>
       <c r="F11" s="13">
-        <v>279484194</v>
+        <v>336653925</v>
       </c>
       <c r="G11" s="13">
-        <v>336653925</v>
+        <v>324193424</v>
       </c>
       <c r="H11" s="13">
-        <v>324193424</v>
+        <v>388843974</v>
       </c>
       <c r="I11" s="13">
-        <v>388843974</v>
+        <v>406575166</v>
       </c>
       <c r="J11" s="13">
-        <v>406575166</v>
+        <v>481494914</v>
       </c>
       <c r="K11" s="13">
-        <v>481494914</v>
+        <v>326178808</v>
       </c>
       <c r="L11" s="13">
-        <v>326178808</v>
+        <v>348699758</v>
       </c>
       <c r="M11" s="13">
-        <v>348699758</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>450665057</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-82274038</v>
+        <v>-112123208</v>
       </c>
       <c r="E12" s="11">
-        <v>-112123208</v>
+        <v>-143168055</v>
       </c>
       <c r="F12" s="11">
-        <v>-143168055</v>
+        <v>-164051934</v>
       </c>
       <c r="G12" s="11">
-        <v>-164051934</v>
+        <v>-96683725</v>
       </c>
       <c r="H12" s="11">
-        <v>-96683725</v>
+        <v>-194834717</v>
       </c>
       <c r="I12" s="11">
-        <v>-194834717</v>
+        <v>-246378874</v>
       </c>
       <c r="J12" s="11">
-        <v>-246378875</v>
+        <v>-250964524</v>
       </c>
       <c r="K12" s="11">
-        <v>-250964524</v>
+        <v>-202614404</v>
       </c>
       <c r="L12" s="11">
-        <v>-202614404</v>
+        <v>-245903491</v>
       </c>
       <c r="M12" s="11">
-        <v>-245903491</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-337012236</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>64658601</v>
+        <v>108811420</v>
       </c>
       <c r="E13" s="15">
-        <v>108811420</v>
+        <v>136316139</v>
       </c>
       <c r="F13" s="15">
-        <v>136316139</v>
+        <v>172601991</v>
       </c>
       <c r="G13" s="15">
-        <v>172601991</v>
+        <v>227509699</v>
       </c>
       <c r="H13" s="15">
-        <v>227509699</v>
+        <v>194009257</v>
       </c>
       <c r="I13" s="15">
-        <v>194009257</v>
+        <v>160196292</v>
       </c>
       <c r="J13" s="15">
-        <v>160196291</v>
+        <v>230530390</v>
       </c>
       <c r="K13" s="15">
-        <v>230530390</v>
+        <v>123564404</v>
       </c>
       <c r="L13" s="15">
-        <v>123564404</v>
+        <v>102796267</v>
       </c>
       <c r="M13" s="15">
-        <v>102796267</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>113652821</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3429424</v>
+        <v>-5062177</v>
       </c>
       <c r="E14" s="11">
-        <v>-5062177</v>
+        <v>-6356640</v>
       </c>
       <c r="F14" s="11">
-        <v>-6356640</v>
+        <v>-6317127</v>
       </c>
       <c r="G14" s="11">
-        <v>-6317127</v>
+        <v>-8070005</v>
       </c>
       <c r="H14" s="11">
-        <v>-8070005</v>
+        <v>-7740989</v>
       </c>
       <c r="I14" s="11">
-        <v>-7740989</v>
+        <v>-12199620</v>
       </c>
       <c r="J14" s="11">
-        <v>-10155875</v>
+        <v>-11686162</v>
       </c>
       <c r="K14" s="11">
-        <v>-11686162</v>
+        <v>-9214651</v>
       </c>
       <c r="L14" s="11">
-        <v>-9214651</v>
+        <v>-14800310</v>
       </c>
       <c r="M14" s="11">
-        <v>-14800310</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-17606164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
@@ -1014,259 +1000,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>4761111</v>
+        <v>106691</v>
       </c>
       <c r="E16" s="11">
-        <v>106691</v>
+        <v>2379648</v>
       </c>
       <c r="F16" s="11">
-        <v>2379648</v>
+        <v>-473711</v>
       </c>
       <c r="G16" s="11">
-        <v>-473711</v>
+        <v>2363743</v>
       </c>
       <c r="H16" s="11">
-        <v>2363743</v>
+        <v>429136</v>
       </c>
       <c r="I16" s="11">
-        <v>429136</v>
+        <v>9935122</v>
       </c>
       <c r="J16" s="11">
-        <v>9935123</v>
+        <v>-1606555</v>
       </c>
       <c r="K16" s="11">
-        <v>-1606555</v>
+        <v>2151367</v>
       </c>
       <c r="L16" s="11">
-        <v>2151367</v>
+        <v>-2050274</v>
       </c>
       <c r="M16" s="11">
-        <v>-2050274</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>24828295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>65990288</v>
+        <v>103855934</v>
       </c>
       <c r="E17" s="15">
-        <v>103855934</v>
+        <v>132339147</v>
       </c>
       <c r="F17" s="15">
-        <v>132339147</v>
+        <v>165811153</v>
       </c>
       <c r="G17" s="15">
-        <v>165811153</v>
+        <v>221803437</v>
       </c>
       <c r="H17" s="15">
-        <v>221803437</v>
+        <v>186697404</v>
       </c>
       <c r="I17" s="15">
-        <v>186697404</v>
+        <v>157931794</v>
       </c>
       <c r="J17" s="15">
-        <v>159975539</v>
+        <v>217237673</v>
       </c>
       <c r="K17" s="15">
-        <v>217237673</v>
+        <v>116501120</v>
       </c>
       <c r="L17" s="15">
-        <v>116501120</v>
+        <v>85945683</v>
       </c>
       <c r="M17" s="15">
-        <v>85945683</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>120874952</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4898949</v>
+        <v>-5822180</v>
       </c>
       <c r="E18" s="11">
-        <v>-5822180</v>
+        <v>-12473570</v>
       </c>
       <c r="F18" s="11">
-        <v>-12473570</v>
+        <v>-7785869</v>
       </c>
       <c r="G18" s="11">
-        <v>-7785869</v>
+        <v>-5156182</v>
       </c>
       <c r="H18" s="11">
-        <v>-5156182</v>
+        <v>-5993351</v>
       </c>
       <c r="I18" s="11">
-        <v>-5993351</v>
+        <v>-6010228</v>
       </c>
       <c r="J18" s="11">
-        <v>-6010228</v>
+        <v>-8399752</v>
       </c>
       <c r="K18" s="11">
-        <v>-8399752</v>
+        <v>-6430799</v>
       </c>
       <c r="L18" s="11">
-        <v>-6430799</v>
+        <v>-8269958</v>
       </c>
       <c r="M18" s="11">
-        <v>-8269958</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-14081211</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>15740001</v>
+        <v>8301347</v>
       </c>
       <c r="E19" s="13">
-        <v>8301347</v>
+        <v>65587512</v>
       </c>
       <c r="F19" s="13">
-        <v>65587512</v>
+        <v>10915093</v>
       </c>
       <c r="G19" s="13">
-        <v>10915093</v>
+        <v>10623948</v>
       </c>
       <c r="H19" s="13">
-        <v>10623948</v>
+        <v>16493295</v>
       </c>
       <c r="I19" s="13">
-        <v>16493295</v>
+        <v>146646270</v>
       </c>
       <c r="J19" s="13">
-        <v>144114549</v>
+        <v>21641874</v>
       </c>
       <c r="K19" s="13">
-        <v>21641874</v>
+        <v>-18647293</v>
       </c>
       <c r="L19" s="13">
-        <v>-18647293</v>
+        <v>11483099</v>
       </c>
       <c r="M19" s="13">
-        <v>11483099</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>86406254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>76831340</v>
+        <v>106335101</v>
       </c>
       <c r="E20" s="17">
-        <v>106335101</v>
+        <v>185453089</v>
       </c>
       <c r="F20" s="17">
-        <v>185453089</v>
+        <v>168940377</v>
       </c>
       <c r="G20" s="17">
-        <v>168940377</v>
+        <v>227271203</v>
       </c>
       <c r="H20" s="17">
-        <v>227271203</v>
+        <v>197197348</v>
       </c>
       <c r="I20" s="17">
-        <v>197197348</v>
+        <v>298567836</v>
       </c>
       <c r="J20" s="17">
-        <v>298079860</v>
+        <v>230479795</v>
       </c>
       <c r="K20" s="17">
-        <v>230479795</v>
+        <v>91423028</v>
       </c>
       <c r="L20" s="17">
-        <v>91423028</v>
+        <v>89158824</v>
       </c>
       <c r="M20" s="17">
-        <v>89158824</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>193199995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-8987315</v>
+        <v>-6211230</v>
       </c>
       <c r="E21" s="13">
-        <v>-6211230</v>
+        <v>-9755112</v>
       </c>
       <c r="F21" s="13">
-        <v>-9755112</v>
+        <v>-30341156</v>
       </c>
       <c r="G21" s="13">
-        <v>-30341156</v>
+        <v>-21980626</v>
       </c>
       <c r="H21" s="13">
-        <v>-21980626</v>
+        <v>-10223046</v>
       </c>
       <c r="I21" s="13">
-        <v>-10223046</v>
+        <v>11362223</v>
       </c>
       <c r="J21" s="13">
-        <v>11362223</v>
+        <v>-23560175</v>
       </c>
       <c r="K21" s="13">
-        <v>-23560175</v>
+        <v>-28383271</v>
       </c>
       <c r="L21" s="13">
-        <v>-28383271</v>
+        <v>-5553089</v>
       </c>
       <c r="M21" s="13">
-        <v>-5553089</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>538918</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>67844025</v>
+        <v>100123871</v>
       </c>
       <c r="E22" s="17">
-        <v>100123871</v>
+        <v>175697977</v>
       </c>
       <c r="F22" s="17">
-        <v>175697977</v>
+        <v>138599221</v>
       </c>
       <c r="G22" s="17">
-        <v>138599221</v>
+        <v>205290577</v>
       </c>
       <c r="H22" s="17">
-        <v>205290577</v>
+        <v>186974302</v>
       </c>
       <c r="I22" s="17">
-        <v>186974302</v>
+        <v>309930059</v>
       </c>
       <c r="J22" s="17">
-        <v>309442083</v>
+        <v>206919620</v>
       </c>
       <c r="K22" s="17">
-        <v>206919620</v>
+        <v>63039757</v>
       </c>
       <c r="L22" s="17">
-        <v>63039757</v>
+        <v>83605735</v>
       </c>
       <c r="M22" s="17">
-        <v>83605735</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>193738913</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
@@ -1302,79 +1288,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>67844025</v>
+        <v>100123871</v>
       </c>
       <c r="E24" s="17">
-        <v>100123871</v>
+        <v>175697977</v>
       </c>
       <c r="F24" s="17">
-        <v>175697977</v>
+        <v>138599221</v>
       </c>
       <c r="G24" s="17">
-        <v>138599221</v>
+        <v>205290577</v>
       </c>
       <c r="H24" s="17">
-        <v>205290577</v>
+        <v>186974302</v>
       </c>
       <c r="I24" s="17">
-        <v>186974302</v>
+        <v>309930059</v>
       </c>
       <c r="J24" s="17">
-        <v>309442083</v>
+        <v>206919620</v>
       </c>
       <c r="K24" s="17">
-        <v>206919620</v>
+        <v>63039757</v>
       </c>
       <c r="L24" s="17">
-        <v>63039757</v>
+        <v>83605735</v>
       </c>
       <c r="M24" s="17">
-        <v>83605735</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>193738913</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="E25" s="13">
-        <v>342</v>
+        <v>600</v>
       </c>
       <c r="F25" s="13">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="G25" s="13">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="H25" s="13">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="I25" s="13">
-        <v>353</v>
+        <v>1058</v>
       </c>
       <c r="J25" s="13">
-        <v>1056</v>
+        <v>706</v>
       </c>
       <c r="K25" s="13">
-        <v>706</v>
+        <v>119</v>
       </c>
       <c r="L25" s="13">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="M25" s="13">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
@@ -1389,64 +1375,64 @@
         <v>293000000</v>
       </c>
       <c r="G26" s="11">
-        <v>293000000</v>
+        <v>530000000</v>
       </c>
       <c r="H26" s="11">
         <v>530000000</v>
       </c>
       <c r="I26" s="11">
-        <v>530000000</v>
+        <v>293000000</v>
       </c>
       <c r="J26" s="11">
         <v>293000000</v>
       </c>
-      <c r="K26" s="18">
-        <v>293000000</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="K26" s="11">
         <v>530000000</v>
       </c>
-      <c r="M26" s="18">
+      <c r="L26" s="11">
+        <v>530000000</v>
+      </c>
+      <c r="M26" s="11">
         <v>800000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="13">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F27" s="13">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="G27" s="13">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H27" s="13">
+        <v>234</v>
+      </c>
+      <c r="I27" s="13">
         <v>387</v>
       </c>
-      <c r="I27" s="13">
-        <v>353</v>
-      </c>
       <c r="J27" s="13">
-        <v>584</v>
+        <v>259</v>
       </c>
       <c r="K27" s="13">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="L27" s="13">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M27" s="13">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/folad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9420FC-B1BD-4AEB-A813-B7C0A5B65FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA37D440-EFED-4B9B-8A35-F81C35CBA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-14 (3)</t>
+  </si>
+  <si>
+    <t>1399-05-09 (11)</t>
+  </si>
+  <si>
+    <t>1399-05-11 (3)</t>
+  </si>
+  <si>
+    <t>1399-11-13 (5)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-05-07 (12)</t>
+  </si>
+  <si>
+    <t>1400-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (4)</t>
+  </si>
+  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -85,16 +139,25 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-30</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-29 (3)</t>
   </si>
   <si>
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-30 (2)</t>
+    <t>1402-07-29 (6)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -124,7 +187,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -612,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -626,9 +689,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -819,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>63096408</v>
+      </c>
+      <c r="E11" s="13">
+        <v>73238541</v>
+      </c>
+      <c r="F11" s="13">
+        <v>95946859</v>
+      </c>
+      <c r="G11" s="13">
+        <v>104390631</v>
+      </c>
+      <c r="H11" s="13">
+        <v>95792025</v>
+      </c>
+      <c r="I11" s="13">
+        <v>95329276</v>
+      </c>
+      <c r="J11" s="13">
+        <v>126685284</v>
+      </c>
+      <c r="K11" s="13">
+        <v>146932639</v>
+      </c>
+      <c r="L11" s="13">
         <v>220934628</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>279484194</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>336653925</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>324193424</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>388843974</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>406575166</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>481494914</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>326178808</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>348699758</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>450665057</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>630834205</v>
+      </c>
+      <c r="W11" s="13">
+        <v>604431091</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-34003305</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-38630814</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-42984687</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-53513005</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-59897876</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-69063084</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-68737017</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-82274038</v>
+      </c>
+      <c r="L12" s="11">
         <v>-112123208</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-143168055</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-164051934</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-96683725</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-194834717</v>
       </c>
-      <c r="I12" s="11">
-        <v>-246378874</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
+        <v>-246378875</v>
+      </c>
+      <c r="R12" s="11">
         <v>-250964524</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-202614404</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-245903491</v>
       </c>
-      <c r="M12" s="11">
-        <v>-337012236</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-339739650</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-336215537</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-345470629</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>29093103</v>
+      </c>
+      <c r="E13" s="15">
+        <v>34607727</v>
+      </c>
+      <c r="F13" s="15">
+        <v>52962172</v>
+      </c>
+      <c r="G13" s="15">
+        <v>50877626</v>
+      </c>
+      <c r="H13" s="15">
+        <v>35894149</v>
+      </c>
+      <c r="I13" s="15">
+        <v>26266192</v>
+      </c>
+      <c r="J13" s="15">
+        <v>57948267</v>
+      </c>
+      <c r="K13" s="15">
+        <v>64658601</v>
+      </c>
+      <c r="L13" s="15">
         <v>108811420</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>136316139</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>172601991</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>227509699</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>194009257</v>
       </c>
-      <c r="I13" s="15">
-        <v>160196292</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
+        <v>160196291</v>
+      </c>
+      <c r="R13" s="15">
         <v>230530390</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>123564404</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>102796267</v>
       </c>
-      <c r="M13" s="15">
-        <v>113652821</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>110925407</v>
+      </c>
+      <c r="V13" s="15">
+        <v>294618668</v>
+      </c>
+      <c r="W13" s="15">
+        <v>258960462</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-1763409</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-2624712</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-2295860</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-2751725</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2844143</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-4046448</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-3830892</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-3429424</v>
+      </c>
+      <c r="L14" s="11">
         <v>-5062177</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-6356640</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-6317127</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-8070005</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-7740989</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-12199620</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-11686162</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-9214651</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-14800310</v>
       </c>
-      <c r="M14" s="11">
-        <v>-17606164</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-22004859</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-19634198</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-17296955</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -999,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>921429</v>
+      </c>
+      <c r="E16" s="11">
+        <v>10384805</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1935433</v>
+      </c>
+      <c r="G16" s="11">
+        <v>159045</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-661694</v>
+      </c>
+      <c r="I16" s="11">
+        <v>962732</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-891305</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4761111</v>
+      </c>
+      <c r="L16" s="11">
         <v>106691</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>2379648</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-473711</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>2363743</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>429136</v>
       </c>
-      <c r="I16" s="11">
-        <v>9935122</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
+        <v>9935124</v>
+      </c>
+      <c r="R16" s="11">
         <v>-1606555</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>2151367</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>-2050274</v>
       </c>
-      <c r="M16" s="11">
-        <v>24828295</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>29713041</v>
+      </c>
+      <c r="V16" s="11">
+        <v>-4261397</v>
+      </c>
+      <c r="W16" s="11">
+        <v>470551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>28251123</v>
+      </c>
+      <c r="E17" s="15">
+        <v>42367820</v>
+      </c>
+      <c r="F17" s="15">
+        <v>48730879</v>
+      </c>
+      <c r="G17" s="15">
+        <v>48284946</v>
+      </c>
+      <c r="H17" s="15">
+        <v>32388312</v>
+      </c>
+      <c r="I17" s="15">
+        <v>23182476</v>
+      </c>
+      <c r="J17" s="15">
+        <v>53226070</v>
+      </c>
+      <c r="K17" s="15">
+        <v>65990288</v>
+      </c>
+      <c r="L17" s="15">
         <v>103855934</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>132339147</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>165811153</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>221803437</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>186697404</v>
       </c>
-      <c r="I17" s="15">
-        <v>157931794</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
+        <v>157931795</v>
+      </c>
+      <c r="R17" s="15">
         <v>217237673</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>116501120</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>85945683</v>
       </c>
-      <c r="M17" s="15">
-        <v>120874952</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>118633589</v>
+      </c>
+      <c r="V17" s="15">
+        <v>270723073</v>
+      </c>
+      <c r="W17" s="15">
+        <v>242134058</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-2478479</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-2488127</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-3759534</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-3179762</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-3523280</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-4247846</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-7048609</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-4898949</v>
+      </c>
+      <c r="L18" s="11">
         <v>-5822180</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-12473570</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-7785869</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-5156182</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-5993351</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-6010228</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-8399752</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-6430799</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-8269958</v>
       </c>
-      <c r="M18" s="11">
-        <v>-14081211</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-14723877</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-19765157</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-13936907</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-1471004</v>
+      </c>
+      <c r="E19" s="13">
+        <v>19638395</v>
+      </c>
+      <c r="F19" s="13">
+        <v>75424</v>
+      </c>
+      <c r="G19" s="13">
+        <v>846701</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1198130</v>
+      </c>
+      <c r="I19" s="13">
+        <v>29002011</v>
+      </c>
+      <c r="J19" s="13">
+        <v>381037</v>
+      </c>
+      <c r="K19" s="13">
+        <v>15740001</v>
+      </c>
+      <c r="L19" s="13">
         <v>8301347</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>65587512</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>10915093</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>10623948</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>16493295</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>146646270</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>21641874</v>
       </c>
-      <c r="K19" s="13">
-        <v>-18647293</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
+        <v>-18230771</v>
+      </c>
+      <c r="T19" s="13">
         <v>11483099</v>
       </c>
-      <c r="M19" s="13">
-        <v>86406254</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>214189397</v>
+      </c>
+      <c r="V19" s="13">
+        <v>68821248</v>
+      </c>
+      <c r="W19" s="13">
+        <v>30039829</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>24301640</v>
+      </c>
+      <c r="E20" s="17">
+        <v>59518088</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45046769</v>
+      </c>
+      <c r="G20" s="17">
+        <v>45951885</v>
+      </c>
+      <c r="H20" s="17">
+        <v>30063162</v>
+      </c>
+      <c r="I20" s="17">
+        <v>47936641</v>
+      </c>
+      <c r="J20" s="17">
+        <v>46558498</v>
+      </c>
+      <c r="K20" s="17">
+        <v>76831340</v>
+      </c>
+      <c r="L20" s="17">
         <v>106335101</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>185453089</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>168940377</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>227271203</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>197197348</v>
       </c>
-      <c r="I20" s="17">
-        <v>298567836</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="Q20" s="17">
+        <v>298567837</v>
+      </c>
+      <c r="R20" s="17">
         <v>230479795</v>
       </c>
-      <c r="K20" s="17">
-        <v>91423028</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
+        <v>91839550</v>
+      </c>
+      <c r="T20" s="17">
         <v>89158824</v>
       </c>
-      <c r="M20" s="17">
-        <v>193199995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>318099109</v>
+      </c>
+      <c r="V20" s="17">
+        <v>319779164</v>
+      </c>
+      <c r="W20" s="17">
+        <v>258236980</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>1040863</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-7141489</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-7393015</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-2921908</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2360581</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-8363145</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-7449360</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-8987315</v>
+      </c>
+      <c r="L21" s="13">
         <v>-6211230</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-9755112</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-30341156</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-21980626</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-10223046</v>
       </c>
-      <c r="I21" s="13">
-        <v>11362223</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="Q21" s="13">
+        <v>-440768</v>
+      </c>
+      <c r="R21" s="13">
         <v>-23560175</v>
       </c>
-      <c r="K21" s="13">
-        <v>-28383271</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
+        <v>-28383270</v>
+      </c>
+      <c r="T21" s="13">
         <v>-5553089</v>
       </c>
-      <c r="M21" s="13">
-        <v>538918</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>7576596</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-52366874</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-1176172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>25342503</v>
+      </c>
+      <c r="E22" s="17">
+        <v>52376599</v>
+      </c>
+      <c r="F22" s="17">
+        <v>37653754</v>
+      </c>
+      <c r="G22" s="17">
+        <v>43029977</v>
+      </c>
+      <c r="H22" s="17">
+        <v>27702581</v>
+      </c>
+      <c r="I22" s="17">
+        <v>39573496</v>
+      </c>
+      <c r="J22" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="K22" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="L22" s="17">
         <v>100123871</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>175697977</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>138599221</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>205290577</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>186974302</v>
       </c>
-      <c r="I22" s="17">
-        <v>309930059</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="Q22" s="17">
+        <v>298127069</v>
+      </c>
+      <c r="R22" s="17">
         <v>206919620</v>
       </c>
-      <c r="K22" s="17">
-        <v>63039757</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
+        <v>63456280</v>
+      </c>
+      <c r="T22" s="17">
         <v>83605735</v>
       </c>
-      <c r="M22" s="17">
-        <v>193738913</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>325675705</v>
+      </c>
+      <c r="V22" s="17">
+        <v>267412290</v>
+      </c>
+      <c r="W22" s="17">
+        <v>257060808</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1287,98 +1855,188 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>25342503</v>
+      </c>
+      <c r="E24" s="17">
+        <v>52376599</v>
+      </c>
+      <c r="F24" s="17">
+        <v>37653754</v>
+      </c>
+      <c r="G24" s="17">
+        <v>43029977</v>
+      </c>
+      <c r="H24" s="17">
+        <v>27702581</v>
+      </c>
+      <c r="I24" s="17">
+        <v>39573496</v>
+      </c>
+      <c r="J24" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="K24" s="17">
+        <v>67844025</v>
+      </c>
+      <c r="L24" s="17">
         <v>100123871</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>175697977</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>138599221</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>205290577</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>186974302</v>
       </c>
-      <c r="I24" s="17">
-        <v>309930059</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="Q24" s="17">
+        <v>298127069</v>
+      </c>
+      <c r="R24" s="17">
         <v>206919620</v>
       </c>
-      <c r="K24" s="17">
-        <v>63039757</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
+        <v>63456280</v>
+      </c>
+      <c r="T24" s="17">
         <v>83605735</v>
       </c>
-      <c r="M24" s="17">
-        <v>193738913</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>325675705</v>
+      </c>
+      <c r="V24" s="17">
+        <v>267412290</v>
+      </c>
+      <c r="W24" s="17">
+        <v>257060808</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>195</v>
+      </c>
+      <c r="E25" s="13">
+        <v>251</v>
+      </c>
+      <c r="F25" s="13">
+        <v>180</v>
+      </c>
+      <c r="G25" s="13">
+        <v>206</v>
+      </c>
+      <c r="H25" s="13">
+        <v>133</v>
+      </c>
+      <c r="I25" s="13">
+        <v>135</v>
+      </c>
+      <c r="J25" s="13">
+        <v>133</v>
+      </c>
+      <c r="K25" s="13">
+        <v>232</v>
+      </c>
+      <c r="L25" s="13">
         <v>342</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>600</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>473</v>
       </c>
-      <c r="G25" s="13">
-        <v>387</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="O25" s="13">
+        <v>176</v>
+      </c>
+      <c r="P25" s="13">
         <v>353</v>
       </c>
-      <c r="I25" s="13">
-        <v>1058</v>
-      </c>
-      <c r="J25" s="13">
-        <v>706</v>
-      </c>
-      <c r="K25" s="13">
-        <v>119</v>
-      </c>
-      <c r="L25" s="13">
+      <c r="Q25" s="13">
+        <v>373</v>
+      </c>
+      <c r="R25" s="13">
+        <v>259</v>
+      </c>
+      <c r="S25" s="13">
+        <v>79</v>
+      </c>
+      <c r="T25" s="13">
         <v>158</v>
       </c>
-      <c r="M25" s="13">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>407</v>
+      </c>
+      <c r="V25" s="13">
+        <v>334</v>
+      </c>
+      <c r="W25" s="13">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>293000000</v>
+        <v>130000000</v>
       </c>
       <c r="E26" s="11">
-        <v>293000000</v>
+        <v>209000000</v>
       </c>
       <c r="F26" s="11">
-        <v>293000000</v>
+        <v>209000000</v>
       </c>
       <c r="G26" s="11">
-        <v>530000000</v>
+        <v>209000000</v>
       </c>
       <c r="H26" s="11">
-        <v>530000000</v>
+        <v>209000000</v>
       </c>
       <c r="I26" s="11">
         <v>293000000</v>
@@ -1387,52 +2045,112 @@
         <v>293000000</v>
       </c>
       <c r="K26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="N26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="O26" s="11">
         <v>530000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="P26" s="11">
         <v>530000000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="Q26" s="11">
         <v>800000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>530000000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13">
+        <v>65</v>
+      </c>
+      <c r="F27" s="13">
+        <v>47</v>
+      </c>
+      <c r="G27" s="13">
+        <v>54</v>
+      </c>
+      <c r="H27" s="13">
+        <v>35</v>
+      </c>
+      <c r="I27" s="13">
+        <v>49</v>
+      </c>
+      <c r="J27" s="13">
+        <v>49</v>
+      </c>
+      <c r="K27" s="13">
+        <v>85</v>
+      </c>
+      <c r="L27" s="13">
         <v>125</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>220</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>173</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>257</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>234</v>
       </c>
-      <c r="I27" s="13">
-        <v>387</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="Q27" s="13">
+        <v>373</v>
+      </c>
+      <c r="R27" s="13">
         <v>259</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>79</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>105</v>
       </c>
-      <c r="M27" s="13">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>407</v>
+      </c>
+      <c r="V27" s="13">
+        <v>334</v>
+      </c>
+      <c r="W27" s="13">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1445,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
